--- a/StructureDefinition-onconova-tumor-mutational-burden.xlsx
+++ b/StructureDefinition-onconova-tumor-mutational-burden.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:38:38+00:00</t>
+    <t>2025-10-15T14:58:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-mutational-burden.xlsx
+++ b/StructureDefinition-onconova-tumor-mutational-burden.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:58:32+00:00</t>
+    <t>2025-10-15T15:04:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-mutational-burden.xlsx
+++ b/StructureDefinition-onconova-tumor-mutational-burden.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:04:18+00:00</t>
+    <t>2025-10-17T13:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -277,7 +277,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}o-sig-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-sig-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}o-sig-req-3:The valueQuantity element is required and must be provided. {valueQuantity.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -859,7 +859,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.1.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
 </t>
   </si>
   <si>
@@ -948,8 +948,8 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-PeriodTiminginstant</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>Clinically relevant time/time-period for observation</t>

--- a/StructureDefinition-onconova-tumor-mutational-burden.xlsx
+++ b/StructureDefinition-onconova-tumor-mutational-burden.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:44:17+00:00</t>
+    <t>2025-11-07T05:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-mutational-burden.xlsx
+++ b/StructureDefinition-onconova-tumor-mutational-burden.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T05:59:36+00:00</t>
+    <t>2025-11-11T12:30:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-mutational-burden.xlsx
+++ b/StructureDefinition-onconova-tumor-mutational-burden.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:30:26+00:00</t>
+    <t>2025-11-11T12:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-mutational-burden.xlsx
+++ b/StructureDefinition-onconova-tumor-mutational-burden.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:47:38+00:00</t>
+    <t>2025-11-18T09:06:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-mutational-burden.xlsx
+++ b/StructureDefinition-onconova-tumor-mutational-burden.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:06:42+00:00</t>
+    <t>2025-11-19T13:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-mutational-burden.xlsx
+++ b/StructureDefinition-onconova-tumor-mutational-burden.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T13:56:54+00:00</t>
+    <t>2025-11-19T14:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-mutational-burden.xlsx
+++ b/StructureDefinition-onconova-tumor-mutational-burden.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T14:47:01+00:00</t>
+    <t>2025-11-21T06:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-mutational-burden.xlsx
+++ b/StructureDefinition-onconova-tumor-mutational-burden.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T06:40:28+00:00</t>
+    <t>2025-11-21T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-mutational-burden.xlsx
+++ b/StructureDefinition-onconova-tumor-mutational-burden.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T12:46:13+00:00</t>
+    <t>2025-11-21T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-mutational-burden.xlsx
+++ b/StructureDefinition-onconova-tumor-mutational-burden.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T14:06:51+00:00</t>
+    <t>2025-11-22T09:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-mutational-burden.xlsx
+++ b/StructureDefinition-onconova-tumor-mutational-burden.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$75</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2918" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2918" uniqueCount="544">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:54:31+00:00</t>
+    <t>2025-11-22T09:58:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,8 +84,10 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile representing tumor mutational burden for a cancer patient. 
-This profile extends the GenomicsReporting IG [TumorMutationalBurden profile](http://hl7.org/fhir/uv/genomics-reporting/StructureDefinition/tmb) to include specific constraints and extensions relevant to Onconova.</t>
+    <t xml:space="preserve">A profile representing tumor mutational burden for a cancer patient. 
+This profile extends the GenomicsReporting IG [TumorMutationalBurden profile](http://hl7.org/fhir/uv/genomics-reporting/StructureDefinition/tmb) to include specific constraints and extensions relevant to Onconova.
+**Conformance:**
+Observation resources representing a tumor mutational burden obtained through genomic testing in the scope of Onconova SHALL conform to this profile. Any resource intended to conform to this profile SHOULD populate `meta.profile` accordingly. </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -112,7 +117,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/genomics-reporting/StructureDefinition/tmb|2.0.0</t>
+    <t>http://hl7.org/fhir/uv/genomics-reporting/StructureDefinition/tmb</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -378,7 +383,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -469,7 +474,7 @@
     <t>secondary-finding</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {observation-secondaryFinding|5.2.0}
+    <t xml:space="preserve">Extension {observation-secondaryFinding}
 </t>
   </si>
   <si>
@@ -493,7 +498,7 @@
     <t>body-structure</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {bodySite|5.2.0}
+    <t xml:space="preserve">Extension {bodySite}
 </t>
   </si>
   <si>
@@ -561,7 +566,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
 </t>
   </si>
   <si>
@@ -590,7 +595,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
+    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
 </t>
   </si>
   <si>
@@ -615,19 +620,13 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
+    <t>Not used in this profile</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
     <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>final</t>
   </si>
   <si>
     <t>required</t>
@@ -676,7 +675,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
     <t xml:space="preserve">value:coding}
@@ -835,7 +834,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -859,11 +858,11 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient)
 </t>
   </si>
   <si>
-    <t>Who and/or what the observation is about</t>
+    <t>The cancer patient associated with this signature</t>
   </si>
   <si>
     <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
@@ -890,14 +889,8 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource|4.0.1)
+    <t xml:space="preserve">Reference(Resource)
 </t>
-  </si>
-  <si>
-    <t>What the observation is about, when it is not about the subject of record</t>
-  </si>
-  <si>
-    <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
   </si>
   <si>
     <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
@@ -913,14 +906,8 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1)
+    <t xml:space="preserve">Reference(Encounter)
 </t>
-  </si>
-  <si>
-    <t>Healthcare event during which this observation is made</t>
-  </si>
-  <si>
-    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.</t>
   </si>
   <si>
     <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).</t>
@@ -983,12 +970,6 @@
 </t>
   </si>
   <si>
-    <t>Date/Time this version was made available</t>
-  </si>
-  <si>
-    <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
-  </si>
-  <si>
     <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
   </si>
   <si>
@@ -1004,14 +985,8 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
 </t>
-  </si>
-  <si>
-    <t>Who is responsible for the observation</t>
-  </si>
-  <si>
-    <t>Who was responsible for asserting the observed value as "true".</t>
   </si>
   <si>
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
@@ -1257,7 +1232,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1274,19 +1249,13 @@
 </t>
   </si>
   <si>
-    <t>High, low, normal, etc.</t>
-  </si>
-  <si>
-    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
-  </si>
-  <si>
     <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
   </si>
   <si>
     <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/genomics-reporting/ValueSet/high-low-codes-vs|2.0.0</t>
+    <t>http://hl7.org/fhir/uv/genomics-reporting/ValueSet/high-low-codes-vs</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1304,7 +1273,7 @@
     <t>Observation.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {http://hl7.org/fhir/uv/genomics-reporting/StructureDefinition/coded-annotation|2.0.0}
+    <t xml:space="preserve">Annotation {http://hl7.org/fhir/uv/genomics-reporting/StructureDefinition/coded-annotation}
 </t>
   </si>
   <si>
@@ -1328,12 +1297,6 @@
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>Observed body part</t>
-  </si>
-  <si>
-    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
-  </si>
-  <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
   </si>
@@ -1341,7 +1304,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1374,7 +1337,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1386,16 +1349,10 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen|4.0.1)
+    <t xml:space="preserve">Reference(Specimen)
 </t>
   </si>
   <si>
-    <t>Specimen used for this observation</t>
-  </si>
-  <si>
-    <t>The specimen that was used when this observation was made.</t>
-  </si>
-  <si>
     <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).</t>
   </si>
   <si>
@@ -1414,14 +1371,8 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
+    <t xml:space="preserve">Reference(Device|DeviceMetric)
 </t>
-  </si>
-  <si>
-    <t>(Measurement) Device</t>
-  </si>
-  <si>
-    <t>The device used to generate the observation data.</t>
   </si>
   <si>
     <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.</t>
@@ -1446,12 +1397,6 @@
 </t>
   </si>
   <si>
-    <t>Provides guide for interpretation</t>
-  </si>
-  <si>
-    <t>Guidance on how to interpret the value by comparison to a normal or recommended range.  Multiple reference ranges are interpreted as an "OR".   In other words, to represent two distinct target populations, two `referenceRange` elements would be used.</t>
-  </si>
-  <si>
     <t>Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.</t>
   </si>
   <si>
@@ -1494,7 +1439,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -1544,7 +1489,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1577,7 +1522,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1614,16 +1559,10 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
+    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
 </t>
   </si>
   <si>
-    <t>Related resource that belongs to the Observation group</t>
-  </si>
-  <si>
-    <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
-  </si>
-  <si>
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
@@ -1636,7 +1575,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
+    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
 </t>
   </si>
   <si>
@@ -1653,12 +1592,6 @@
   </si>
   <si>
     <t>Observation.component</t>
-  </si>
-  <si>
-    <t>Component results</t>
-  </si>
-  <si>
-    <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>
   </si>
   <si>
     <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
@@ -1737,10 +1670,16 @@
     <t>Observation.component.interpretation</t>
   </si>
   <si>
+    <t>High, low, normal, etc.</t>
+  </si>
+  <si>
+    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
+  </si>
+  <si>
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
   </si>
   <si>
     <t>Observation.component.referenceRange</t>
@@ -1931,6 +1870,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -2126,7 +2080,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="122.43359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="95.26171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2141,7 +2095,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.05078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -2287,7 +2241,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -2407,7 +2361,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>91</v>
       </c>
@@ -2527,7 +2481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>99</v>
       </c>
@@ -2645,7 +2599,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>105</v>
       </c>
@@ -2765,7 +2719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>111</v>
       </c>
@@ -2885,7 +2839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>120</v>
       </c>
@@ -3005,7 +2959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>128</v>
       </c>
@@ -3125,7 +3079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>136</v>
       </c>
@@ -3241,7 +3195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>144</v>
       </c>
@@ -3361,7 +3315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>150</v>
       </c>
@@ -3481,7 +3435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>155</v>
       </c>
@@ -3603,7 +3557,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>162</v>
       </c>
@@ -3723,7 +3677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>171</v>
       </c>
@@ -3843,7 +3797,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>180</v>
       </c>
@@ -3963,7 +3917,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>189</v>
       </c>
@@ -3997,13 +3951,13 @@
         <v>190</v>
       </c>
       <c r="M16" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -4013,28 +3967,28 @@
         <v>20</v>
       </c>
       <c r="S16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="T16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
@@ -4067,30 +4021,30 @@
         <v>104</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AP16" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" hidden="true">
+      <c r="A17" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AO16" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AP16" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>203</v>
-      </c>
       <c r="B17" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4113,19 +4067,19 @@
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -4153,19 +4107,19 @@
         <v>116</v>
       </c>
       <c r="Y17" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB17" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Z17" t="s" s="2">
+      <c r="AC17" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>20</v>
@@ -4174,7 +4128,7 @@
         <v>141</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4198,24 +4152,24 @@
         <v>20</v>
       </c>
       <c r="AN17" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AO17" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AP17" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AO17" t="s" s="2">
+      <c r="B18" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C18" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AP17" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>20</v>
@@ -4237,19 +4191,19 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -4277,10 +4231,10 @@
         <v>116</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>20</v>
@@ -4298,7 +4252,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4322,21 +4276,21 @@
         <v>20</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4359,13 +4313,13 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4416,7 +4370,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4440,21 +4394,21 @@
         <v>20</v>
       </c>
       <c r="AN19" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP19" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4480,10 +4434,10 @@
         <v>137</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>159</v>
@@ -4527,7 +4481,7 @@
         <v>140</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>20</v>
@@ -4536,7 +4490,7 @@
         <v>141</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4560,7 +4514,7 @@
         <v>20</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>20</v>
@@ -4569,12 +4523,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4597,19 +4551,19 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -4619,7 +4573,7 @@
         <v>20</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>20</v>
@@ -4658,7 +4612,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4679,24 +4633,24 @@
         <v>20</v>
       </c>
       <c r="AM21" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AO21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP21" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" hidden="true">
+      <c r="A22" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AN21" t="s" s="2">
+      <c r="B22" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4719,19 +4673,19 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4780,7 +4734,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4801,28 +4755,28 @@
         <v>20</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AO22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP22" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" hidden="true">
+      <c r="A23" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AN22" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP22" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>250</v>
-      </c>
       <c r="B23" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4841,19 +4795,19 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4863,29 +4817,29 @@
         <v>20</v>
       </c>
       <c r="S23" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="T23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="AA23" t="s" s="2">
         <v>20</v>
       </c>
@@ -4902,7 +4856,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>92</v>
@@ -4917,30 +4871,30 @@
         <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AP23" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AP23" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4948,13 +4902,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>20</v>
@@ -4963,19 +4917,19 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -5024,7 +4978,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5039,30 +4993,30 @@
         <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AL24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AP24" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" hidden="true">
+      <c r="A25" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AO24" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AP24" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="B25" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5085,16 +5039,16 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>278</v>
+        <v>190</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>279</v>
+        <v>190</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5144,7 +5098,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5165,28 +5119,28 @@
         <v>20</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5205,19 +5159,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>285</v>
+        <v>190</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>286</v>
+        <v>190</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -5266,7 +5220,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5281,19 +5235,19 @@
         <v>104</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>20</v>
@@ -5301,24 +5255,24 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>20</v>
@@ -5327,19 +5281,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -5388,7 +5342,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5403,30 +5357,30 @@
         <v>104</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5449,16 +5403,16 @@
         <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>306</v>
+        <v>190</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>307</v>
+        <v>190</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5508,7 +5462,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5529,24 +5483,24 @@
         <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5569,17 +5523,17 @@
         <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>314</v>
+        <v>190</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>315</v>
+        <v>190</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5628,7 +5582,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5643,30 +5597,30 @@
         <v>104</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5674,7 +5628,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>92</v>
@@ -5689,19 +5643,19 @@
         <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -5738,17 +5692,17 @@
         <v>20</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5757,7 +5711,7 @@
         <v>92</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>104</v>
@@ -5766,43 +5720,43 @@
         <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>20</v>
@@ -5811,19 +5765,19 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5833,7 +5787,7 @@
         <v>20</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>20</v>
@@ -5872,7 +5826,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5881,7 +5835,7 @@
         <v>92</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>104</v>
@@ -5890,27 +5844,27 @@
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5933,13 +5887,13 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5990,7 +5944,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6014,7 +5968,7 @@
         <v>20</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>20</v>
@@ -6023,12 +5977,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6054,10 +6008,10 @@
         <v>137</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>159</v>
@@ -6101,7 +6055,7 @@
         <v>140</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>20</v>
@@ -6110,7 +6064,7 @@
         <v>141</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6134,7 +6088,7 @@
         <v>20</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -6143,12 +6097,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6171,19 +6125,19 @@
         <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -6232,7 +6186,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6253,10 +6207,10 @@
         <v>20</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
@@ -6265,12 +6219,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6296,20 +6250,20 @@
         <v>112</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q35" t="s" s="2">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>20</v>
@@ -6330,13 +6284,13 @@
         <v>20</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>20</v>
@@ -6354,7 +6308,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6375,10 +6329,10 @@
         <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>20</v>
@@ -6387,12 +6341,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6415,17 +6369,17 @@
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -6435,7 +6389,7 @@
         <v>20</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>20</v>
@@ -6474,7 +6428,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6495,10 +6449,10 @@
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>20</v>
@@ -6507,12 +6461,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6538,14 +6492,14 @@
         <v>106</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -6594,7 +6548,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6603,7 +6557,7 @@
         <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>104</v>
@@ -6615,24 +6569,24 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AO37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP37" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AN37" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>379</v>
-      </c>
       <c r="B38" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6658,16 +6612,16 @@
         <v>112</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6716,7 +6670,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6737,10 +6691,10 @@
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>20</v>
@@ -6749,12 +6703,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6777,19 +6731,19 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -6814,13 +6768,13 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6838,7 +6792,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6847,7 +6801,7 @@
         <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>104</v>
@@ -6862,7 +6816,7 @@
         <v>135</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>20</v>
@@ -6873,24 +6827,24 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>20</v>
@@ -6899,19 +6853,19 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>399</v>
+        <v>190</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>400</v>
+        <v>190</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -6936,11 +6890,11 @@
         <v>20</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>20</v>
@@ -6958,7 +6912,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6976,27 +6930,27 @@
         <v>20</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>407</v>
+        <v>395</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7019,19 +6973,19 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -7080,7 +7034,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7104,7 +7058,7 @@
         <v>135</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>20</v>
@@ -7113,12 +7067,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7141,16 +7095,16 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>416</v>
+        <v>190</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>417</v>
+        <v>190</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7176,13 +7130,13 @@
         <v>20</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>20</v>
@@ -7200,7 +7154,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7218,27 +7172,27 @@
         <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>424</v>
+        <v>410</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7261,19 +7215,19 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -7298,13 +7252,13 @@
         <v>20</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>20</v>
@@ -7322,7 +7276,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7343,10 +7297,10 @@
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
@@ -7355,12 +7309,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7383,16 +7337,16 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>436</v>
+        <v>190</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>437</v>
+        <v>190</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7442,7 +7396,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7460,27 +7414,27 @@
         <v>20</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7503,16 +7457,16 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>445</v>
+        <v>190</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>446</v>
+        <v>190</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7562,7 +7516,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7580,27 +7534,27 @@
         <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>451</v>
+        <v>433</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7623,19 +7577,19 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>454</v>
+        <v>190</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>455</v>
+        <v>190</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -7684,7 +7638,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7696,7 +7650,7 @@
         <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>20</v>
@@ -7705,10 +7659,10 @@
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
@@ -7717,12 +7671,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7745,13 +7699,13 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7802,7 +7756,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7826,7 +7780,7 @@
         <v>20</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>20</v>
@@ -7835,12 +7789,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7866,10 +7820,10 @@
         <v>137</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>159</v>
@@ -7922,7 +7876,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7946,7 +7900,7 @@
         <v>20</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>20</v>
@@ -7955,16 +7909,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7986,10 +7940,10 @@
         <v>137</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>159</v>
@@ -8044,7 +7998,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8077,12 +8031,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8105,13 +8059,13 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8162,7 +8116,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8171,7 +8125,7 @@
         <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>104</v>
@@ -8183,10 +8137,10 @@
         <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
@@ -8195,12 +8149,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8223,13 +8177,13 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8280,7 +8234,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8289,7 +8243,7 @@
         <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>104</v>
@@ -8301,10 +8255,10 @@
         <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
@@ -8313,12 +8267,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8341,19 +8295,19 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -8381,10 +8335,10 @@
         <v>116</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>20</v>
@@ -8402,7 +8356,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8420,13 +8374,13 @@
         <v>20</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>20</v>
@@ -8435,12 +8389,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8463,19 +8417,19 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -8500,13 +8454,13 @@
         <v>20</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>20</v>
@@ -8524,7 +8478,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8542,13 +8496,13 @@
         <v>20</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>20</v>
@@ -8557,12 +8511,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8585,17 +8539,17 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -8644,7 +8598,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8668,7 +8622,7 @@
         <v>20</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>20</v>
@@ -8677,12 +8631,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8705,13 +8659,13 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8762,7 +8716,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8783,10 +8737,10 @@
         <v>20</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>20</v>
@@ -8795,12 +8749,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8823,16 +8777,16 @@
         <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>507</v>
+        <v>190</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>508</v>
+        <v>190</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8882,7 +8836,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8903,10 +8857,10 @@
         <v>20</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>511</v>
+        <v>489</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>20</v>
@@ -8915,12 +8869,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8943,16 +8897,16 @@
         <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>513</v>
+        <v>491</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>514</v>
+        <v>492</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9002,7 +8956,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9023,10 +8977,10 @@
         <v>20</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>20</v>
@@ -9035,12 +8989,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9063,19 +9017,19 @@
         <v>93</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>519</v>
+        <v>190</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>520</v>
+        <v>190</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>521</v>
+        <v>497</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>20</v>
@@ -9112,10 +9066,10 @@
         <v>20</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>20</v>
@@ -9124,7 +9078,7 @@
         <v>141</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9145,10 +9099,10 @@
         <v>20</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>20</v>
@@ -9157,12 +9111,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9185,13 +9139,13 @@
         <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9242,7 +9196,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9266,7 +9220,7 @@
         <v>20</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>20</v>
@@ -9275,12 +9229,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9306,10 +9260,10 @@
         <v>137</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>159</v>
@@ -9362,7 +9316,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9386,7 +9340,7 @@
         <v>20</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>20</v>
@@ -9395,16 +9349,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9426,10 +9380,10 @@
         <v>137</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>159</v>
@@ -9484,7 +9438,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9517,12 +9471,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9545,19 +9499,19 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>20</v>
@@ -9582,14 +9536,14 @@
         <v>20</v>
       </c>
       <c r="X62" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="Z62" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="Y62" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="AA62" t="s" s="2">
         <v>20</v>
       </c>
@@ -9606,7 +9560,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>92</v>
@@ -9624,27 +9578,27 @@
         <v>20</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AO62" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AN62" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>264</v>
-      </c>
       <c r="AP62" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9667,19 +9621,19 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>20</v>
@@ -9728,7 +9682,7 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9746,27 +9700,27 @@
         <v>20</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9789,19 +9743,19 @@
         <v>20</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -9826,13 +9780,13 @@
         <v>20</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>20</v>
@@ -9850,7 +9804,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9859,7 +9813,7 @@
         <v>92</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>104</v>
@@ -9874,7 +9828,7 @@
         <v>135</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>20</v>
@@ -9883,16 +9837,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9911,19 +9865,19 @@
         <v>20</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>399</v>
+        <v>521</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>400</v>
+        <v>522</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>20</v>
@@ -9948,13 +9902,13 @@
         <v>20</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>20</v>
@@ -9972,7 +9926,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9990,27 +9944,27 @@
         <v>20</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>407</v>
+        <v>395</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>547</v>
+        <v>525</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>547</v>
+        <v>525</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10036,16 +9990,16 @@
         <v>82</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>549</v>
+        <v>527</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>20</v>
@@ -10094,7 +10048,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>547</v>
+        <v>525</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10115,10 +10069,10 @@
         <v>20</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>20</v>
@@ -10127,15 +10081,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>551</v>
+        <v>529</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>20</v>
@@ -10157,19 +10111,19 @@
         <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>552</v>
+        <v>530</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>553</v>
+        <v>531</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>554</v>
+        <v>532</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>555</v>
+        <v>533</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>20</v>
@@ -10218,7 +10172,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10239,10 +10193,10 @@
         <v>20</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>20</v>
@@ -10251,12 +10205,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>556</v>
+        <v>534</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10279,13 +10233,13 @@
         <v>20</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10336,7 +10290,7 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10360,7 +10314,7 @@
         <v>20</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>20</v>
@@ -10369,12 +10323,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10400,10 +10354,10 @@
         <v>137</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>159</v>
@@ -10456,7 +10410,7 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10480,7 +10434,7 @@
         <v>20</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>20</v>
@@ -10489,16 +10443,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>558</v>
+        <v>536</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10520,10 +10474,10 @@
         <v>137</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="N70" t="s" s="2">
         <v>159</v>
@@ -10578,7 +10532,7 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10611,12 +10565,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>559</v>
+        <v>537</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10639,19 +10593,19 @@
         <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>551</v>
+        <v>529</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>20</v>
@@ -10661,7 +10615,7 @@
         <v>20</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>560</v>
+        <v>538</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>20</v>
@@ -10676,14 +10630,14 @@
         <v>20</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="Z71" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="Y71" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="AA71" t="s" s="2">
         <v>20</v>
       </c>
@@ -10700,7 +10654,7 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>92</v>
@@ -10718,27 +10672,27 @@
         <v>20</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="AM71" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AO71" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AN71" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>264</v>
-      </c>
       <c r="AP71" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>561</v>
+        <v>539</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10761,19 +10715,19 @@
         <v>93</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>562</v>
+        <v>540</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>20</v>
@@ -10822,7 +10776,7 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10840,27 +10794,27 @@
         <v>20</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>563</v>
+        <v>541</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10883,19 +10837,19 @@
         <v>20</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>20</v>
@@ -10920,13 +10874,13 @@
         <v>20</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>20</v>
@@ -10944,7 +10898,7 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10953,7 +10907,7 @@
         <v>92</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>104</v>
@@ -10968,7 +10922,7 @@
         <v>135</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>20</v>
@@ -10977,16 +10931,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>564</v>
+        <v>542</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -11005,19 +10959,19 @@
         <v>20</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>399</v>
+        <v>521</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>400</v>
+        <v>522</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>20</v>
@@ -11042,13 +10996,13 @@
         <v>20</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>20</v>
@@ -11066,7 +11020,7 @@
         <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11084,27 +11038,27 @@
         <v>20</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>407</v>
+        <v>395</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>565</v>
+        <v>543</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>547</v>
+        <v>525</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11130,16 +11084,16 @@
         <v>82</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>549</v>
+        <v>527</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>20</v>
@@ -11188,7 +11142,7 @@
         <v>20</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>547</v>
+        <v>525</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11209,10 +11163,10 @@
         <v>20</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>20</v>
@@ -11222,6 +11176,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AP75">
+    <filterColumn colId="7">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="27">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI74">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-onconova-tumor-mutational-burden.xlsx
+++ b/StructureDefinition-onconova-tumor-mutational-burden.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:58:04+00:00</t>
+    <t>2025-11-24T08:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1247,6 +1247,12 @@
   <si>
     <t xml:space="preserve">Abnormal Flag
 </t>
+  </si>
+  <si>
+    <t>High, low, normal, etc.</t>
+  </si>
+  <si>
+    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
   </si>
   <si>
     <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
@@ -1668,12 +1674,6 @@
   </si>
   <si>
     <t>Observation.component.interpretation</t>
-  </si>
-  <si>
-    <t>High, low, normal, etc.</t>
-  </si>
-  <si>
-    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
   </si>
   <si>
     <t>Codes identifying interpretations of observations.</t>
@@ -6856,16 +6856,16 @@
         <v>202</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>190</v>
+        <v>389</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>190</v>
+        <v>390</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -6894,7 +6894,7 @@
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>20</v>
@@ -6930,27 +6930,27 @@
         <v>20</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6973,19 +6973,19 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -7034,7 +7034,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7058,7 +7058,7 @@
         <v>135</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>20</v>
@@ -7069,10 +7069,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7104,7 +7104,7 @@
         <v>190</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7133,28 +7133,28 @@
         <v>255</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF42" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7172,27 +7172,27 @@
         <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7218,16 +7218,16 @@
         <v>202</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -7255,10 +7255,10 @@
         <v>255</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>20</v>
@@ -7276,7 +7276,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7297,10 +7297,10 @@
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
@@ -7311,10 +7311,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7337,7 +7337,7 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>190</v>
@@ -7346,7 +7346,7 @@
         <v>190</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7396,7 +7396,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7414,27 +7414,27 @@
         <v>20</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7457,7 +7457,7 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>190</v>
@@ -7466,7 +7466,7 @@
         <v>190</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7516,7 +7516,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7534,27 +7534,27 @@
         <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7577,7 +7577,7 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>190</v>
@@ -7586,10 +7586,10 @@
         <v>190</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -7638,7 +7638,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7650,7 +7650,7 @@
         <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>20</v>
@@ -7659,10 +7659,10 @@
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
@@ -7673,10 +7673,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7791,10 +7791,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7911,14 +7911,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7940,10 +7940,10 @@
         <v>137</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>159</v>
@@ -7998,7 +7998,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8033,10 +8033,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8059,13 +8059,13 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8116,7 +8116,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8125,7 +8125,7 @@
         <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>104</v>
@@ -8137,10 +8137,10 @@
         <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
@@ -8151,10 +8151,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8177,13 +8177,13 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8234,7 +8234,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8243,7 +8243,7 @@
         <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>104</v>
@@ -8255,10 +8255,10 @@
         <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
@@ -8269,10 +8269,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8298,16 +8298,16 @@
         <v>202</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -8335,10 +8335,10 @@
         <v>116</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>20</v>
@@ -8356,7 +8356,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8374,13 +8374,13 @@
         <v>20</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>20</v>
@@ -8391,10 +8391,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8420,16 +8420,16 @@
         <v>202</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -8457,10 +8457,10 @@
         <v>255</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>20</v>
@@ -8478,7 +8478,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8496,13 +8496,13 @@
         <v>20</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>20</v>
@@ -8513,10 +8513,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8539,17 +8539,17 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -8598,7 +8598,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8622,7 +8622,7 @@
         <v>20</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>20</v>
@@ -8633,10 +8633,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8662,10 +8662,10 @@
         <v>217</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8716,7 +8716,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8737,10 +8737,10 @@
         <v>20</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>20</v>
@@ -8751,10 +8751,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8777,7 +8777,7 @@
         <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>190</v>
@@ -8786,7 +8786,7 @@
         <v>190</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8836,7 +8836,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8857,10 +8857,10 @@
         <v>20</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>20</v>
@@ -8871,10 +8871,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8897,16 +8897,16 @@
         <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8956,7 +8956,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8977,10 +8977,10 @@
         <v>20</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>20</v>
@@ -8991,10 +8991,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9017,7 +9017,7 @@
         <v>93</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="L58" t="s" s="2">
         <v>190</v>
@@ -9026,10 +9026,10 @@
         <v>190</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>20</v>
@@ -9066,10 +9066,10 @@
         <v>20</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>20</v>
@@ -9078,7 +9078,7 @@
         <v>141</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9099,10 +9099,10 @@
         <v>20</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>20</v>
@@ -9113,10 +9113,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9231,10 +9231,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9351,14 +9351,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9380,10 +9380,10 @@
         <v>137</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>159</v>
@@ -9438,7 +9438,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9473,10 +9473,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9502,13 +9502,13 @@
         <v>202</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>253</v>
@@ -9560,7 +9560,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>92</v>
@@ -9578,7 +9578,7 @@
         <v>20</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>260</v>
@@ -9595,10 +9595,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9621,16 +9621,16 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>314</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>316</v>
@@ -9682,7 +9682,7 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9700,7 +9700,7 @@
         <v>20</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>321</v>
@@ -9717,10 +9717,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9746,13 +9746,13 @@
         <v>202</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>381</v>
@@ -9804,7 +9804,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9839,10 +9839,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9868,16 +9868,16 @@
         <v>202</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>521</v>
+        <v>389</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>522</v>
+        <v>390</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>20</v>
@@ -9926,7 +9926,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9944,19 +9944,19 @@
         <v>20</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="66" hidden="true">
@@ -9996,10 +9996,10 @@
         <v>527</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>20</v>
@@ -10069,10 +10069,10 @@
         <v>20</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>20</v>
@@ -10086,7 +10086,7 @@
         <v>528</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>529</v>
@@ -10111,7 +10111,7 @@
         <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>530</v>
@@ -10172,7 +10172,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10193,10 +10193,10 @@
         <v>20</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>20</v>
@@ -10210,7 +10210,7 @@
         <v>534</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10328,7 +10328,7 @@
         <v>535</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10448,11 +10448,11 @@
         <v>536</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10474,10 +10474,10 @@
         <v>137</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="N70" t="s" s="2">
         <v>159</v>
@@ -10532,7 +10532,7 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10570,7 +10570,7 @@
         <v>537</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10599,10 +10599,10 @@
         <v>529</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>253</v>
@@ -10654,7 +10654,7 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>92</v>
@@ -10672,7 +10672,7 @@
         <v>20</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>260</v>
@@ -10692,7 +10692,7 @@
         <v>539</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10724,7 +10724,7 @@
         <v>314</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>316</v>
@@ -10776,7 +10776,7 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10794,7 +10794,7 @@
         <v>20</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>321</v>
@@ -10814,7 +10814,7 @@
         <v>541</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10840,13 +10840,13 @@
         <v>202</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>381</v>
@@ -10898,7 +10898,7 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10936,7 +10936,7 @@
         <v>542</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10962,16 +10962,16 @@
         <v>202</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>521</v>
+        <v>389</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>522</v>
+        <v>390</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>20</v>
@@ -11020,7 +11020,7 @@
         <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11038,19 +11038,19 @@
         <v>20</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="75" hidden="true">
@@ -11090,10 +11090,10 @@
         <v>527</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>20</v>
@@ -11163,10 +11163,10 @@
         <v>20</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-onconova-tumor-mutational-burden.xlsx
+++ b/StructureDefinition-onconova-tumor-mutational-burden.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$76</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2918" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="549">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:04:46+00:00</t>
+    <t>2025-11-24T08:19:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -506,6 +506,22 @@
   </si>
   <si>
     <t>Record details about the anatomical location of a specimen or body part. This resource may be used when a coded concept does not provide the necessary detail needed for the use case.</t>
+  </si>
+  <si>
+    <t>Observation.extension:status</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-tumor-mutational-burden-status}
+</t>
+  </si>
+  <si>
+    <t>Tumor Mutational Burden Status</t>
+  </si>
+  <si>
+    <t>The categorical classification of the TMB status interpreted from its value.</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -1247,12 +1263,6 @@
   <si>
     <t xml:space="preserve">Abnormal Flag
 </t>
-  </si>
-  <si>
-    <t>High, low, normal, etc.</t>
-  </si>
-  <si>
-    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
   </si>
   <si>
     <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
@@ -1674,6 +1684,12 @@
   </si>
   <si>
     <t>Observation.component.interpretation</t>
+  </si>
+  <si>
+    <t>High, low, normal, etc.</t>
+  </si>
+  <si>
+    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
   </si>
   <si>
     <t>Codes identifying interpretations of observations.</t>
@@ -2061,7 +2077,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP75"/>
+  <dimension ref="A1:AP76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3435,48 +3451,46 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="D12" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="O12" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>20</v>
       </c>
@@ -3524,7 +3538,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3548,7 +3562,7 @@
         <v>20</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>20</v>
@@ -3559,14 +3573,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3579,23 +3593,25 @@
         <v>20</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>20</v>
@@ -3644,7 +3660,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3656,22 +3672,22 @@
         <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>20</v>
@@ -3679,14 +3695,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3705,17 +3721,17 @@
         <v>93</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>20</v>
@@ -3764,7 +3780,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3779,19 +3795,19 @@
         <v>104</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>20</v>
@@ -3799,14 +3815,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3825,18 +3841,18 @@
         <v>93</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
       </c>
@@ -3884,7 +3900,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3899,16 +3915,16 @@
         <v>104</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>20</v>
@@ -3919,46 +3935,44 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>112</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M16" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>192</v>
-      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>20</v>
       </c>
@@ -3982,13 +3996,13 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>193</v>
+        <v>20</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
@@ -4006,13 +4020,13 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>20</v>
@@ -4021,19 +4035,19 @@
         <v>104</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>20</v>
@@ -4041,10 +4055,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4055,31 +4069,31 @@
         <v>92</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>202</v>
+        <v>112</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -4104,37 +4118,37 @@
         <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>116</v>
+        <v>198</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>210</v>
+        <v>20</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>20</v>
@@ -4143,19 +4157,19 @@
         <v>104</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>20</v>
@@ -4163,14 +4177,12 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
         <v>20</v>
       </c>
@@ -4179,7 +4191,7 @@
         <v>92</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>20</v>
@@ -4191,19 +4203,19 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -4231,28 +4243,28 @@
         <v>116</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4276,10 +4288,10 @@
         <v>20</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>20</v>
@@ -4287,18 +4299,20 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="D19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>92</v>
@@ -4313,16 +4327,20 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>20</v>
       </c>
@@ -4346,13 +4364,13 @@
         <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>20</v>
@@ -4370,19 +4388,19 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>20</v>
@@ -4394,10 +4412,10 @@
         <v>20</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>20</v>
+        <v>217</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>20</v>
@@ -4405,21 +4423,21 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
@@ -4431,17 +4449,15 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>137</v>
+        <v>222</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -4478,43 +4494,43 @@
         <v>20</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AC20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>20</v>
@@ -4525,18 +4541,18 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>81</v>
@@ -4548,23 +4564,21 @@
         <v>20</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>232</v>
-      </c>
       <c r="N21" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>20</v>
       </c>
@@ -4573,7 +4587,7 @@
         <v>20</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>20</v>
@@ -4600,19 +4614,19 @@
         <v>20</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>20</v>
+        <v>231</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4624,7 +4638,7 @@
         <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>20</v>
@@ -4633,10 +4647,10 @@
         <v>20</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>237</v>
+        <v>20</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>20</v>
@@ -4647,10 +4661,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4658,10 +4672,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>20</v>
@@ -4673,19 +4687,19 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4695,7 +4709,7 @@
         <v>20</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>20</v>
@@ -4734,13 +4748,13 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>20</v>
@@ -4755,10 +4769,10 @@
         <v>20</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>20</v>
@@ -4769,18 +4783,18 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>249</v>
+        <v>20</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -4795,19 +4809,19 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4817,7 +4831,7 @@
         <v>20</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>20</v>
@@ -4832,13 +4846,13 @@
         <v>20</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>257</v>
+        <v>20</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>20</v>
@@ -4856,10 +4870,10 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>92</v>
@@ -4871,34 +4885,34 @@
         <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>259</v>
+        <v>20</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>262</v>
+        <v>20</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>263</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>20</v>
+        <v>254</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4908,7 +4922,7 @@
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>20</v>
@@ -4917,19 +4931,19 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>265</v>
+        <v>207</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4939,7 +4953,7 @@
         <v>20</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>20</v>
+        <v>259</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>20</v>
@@ -4954,13 +4968,13 @@
         <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>20</v>
+        <v>261</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>20</v>
+        <v>262</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
@@ -4978,10 +4992,10 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>92</v>
@@ -4993,30 +5007,30 @@
         <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>20</v>
+        <v>268</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5024,13 +5038,13 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>20</v>
@@ -5039,18 +5053,20 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>190</v>
+        <v>271</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>190</v>
+        <v>272</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
       </c>
@@ -5098,13 +5114,13 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>20</v>
@@ -5113,19 +5129,19 @@
         <v>104</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>20</v>
+        <v>275</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>277</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>20</v>
@@ -5133,21 +5149,21 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>279</v>
+        <v>20</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>20</v>
@@ -5162,17 +5178,15 @@
         <v>280</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="N26" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="O26" t="s" s="2">
-        <v>282</v>
-      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>20</v>
       </c>
@@ -5220,13 +5234,13 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>20</v>
@@ -5235,44 +5249,44 @@
         <v>104</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AO26" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AP26" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
+      <c r="A27" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AL26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>287</v>
-      </c>
       <c r="B27" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>20</v>
@@ -5281,19 +5295,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>290</v>
+        <v>195</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>291</v>
+        <v>195</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -5342,7 +5356,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5357,44 +5371,44 @@
         <v>104</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>20</v>
@@ -5403,18 +5417,20 @@
         <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>190</v>
+        <v>295</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>190</v>
+        <v>296</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
       </c>
@@ -5462,7 +5478,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5477,19 +5493,19 @@
         <v>104</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>20</v>
+        <v>299</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>20</v>
@@ -5497,10 +5513,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5511,7 +5527,7 @@
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>20</v>
@@ -5523,18 +5539,18 @@
         <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>306</v>
-      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>20</v>
       </c>
@@ -5582,13 +5598,13 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>20</v>
@@ -5597,19 +5613,19 @@
         <v>104</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AL29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>20</v>
@@ -5617,10 +5633,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5628,10 +5644,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>20</v>
@@ -5643,19 +5659,17 @@
         <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>313</v>
+        <v>195</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -5692,59 +5706,59 @@
         <v>20</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AC30" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="AD30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>318</v>
+        <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>319</v>
+        <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>20</v>
+        <v>312</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>320</v>
+        <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>20</v>
+        <v>315</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>323</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>20</v>
       </c>
@@ -5756,7 +5770,7 @@
         <v>92</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>20</v>
@@ -5765,19 +5779,19 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5787,7 +5801,7 @@
         <v>20</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>326</v>
+        <v>20</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>20</v>
@@ -5814,19 +5828,17 @@
         <v>20</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>20</v>
+        <v>323</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5835,7 +5847,7 @@
         <v>92</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>104</v>
@@ -5844,59 +5856,65 @@
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>217</v>
+        <v>317</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>218</v>
+        <v>318</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
       </c>
@@ -5905,7 +5923,7 @@
         <v>20</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>20</v>
+        <v>331</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>20</v>
@@ -5944,7 +5962,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>220</v>
+        <v>316</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5953,47 +5971,47 @@
         <v>92</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>20</v>
+        <v>324</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>20</v>
+        <v>325</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>20</v>
+        <v>326</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>221</v>
+        <v>327</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>20</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>20</v>
@@ -6005,17 +6023,15 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>137</v>
+        <v>222</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -6052,43 +6068,43 @@
         <v>20</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AC33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -6099,21 +6115,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>20</v>
@@ -6122,23 +6138,21 @@
         <v>20</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>333</v>
+        <v>137</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>334</v>
+        <v>229</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>335</v>
+        <v>230</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>20</v>
       </c>
@@ -6174,31 +6188,31 @@
         <v>20</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>20</v>
+        <v>231</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>338</v>
+        <v>232</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>20</v>
@@ -6207,10 +6221,10 @@
         <v>20</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>339</v>
+        <v>20</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>340</v>
+        <v>226</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
@@ -6221,10 +6235,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6241,74 +6255,74 @@
         <v>20</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>112</v>
+        <v>338</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="P35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="P35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q35" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="R35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6329,10 +6343,10 @@
         <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>20</v>
@@ -6343,10 +6357,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6363,33 +6377,35 @@
         <v>20</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="R36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>357</v>
+        <v>20</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>20</v>
@@ -6404,13 +6420,13 @@
         <v>20</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>20</v>
+        <v>352</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>20</v>
+        <v>353</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>20</v>
@@ -6428,7 +6444,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6449,10 +6465,10 @@
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>20</v>
@@ -6463,10 +6479,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6489,17 +6505,17 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>106</v>
+        <v>222</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -6509,7 +6525,7 @@
         <v>20</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>20</v>
+        <v>362</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>20</v>
@@ -6548,7 +6564,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6557,7 +6573,7 @@
         <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>367</v>
+        <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>104</v>
@@ -6569,10 +6585,10 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>20</v>
@@ -6583,10 +6599,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6609,19 +6625,17 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6670,7 +6684,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6679,7 +6693,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>20</v>
+        <v>372</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>104</v>
@@ -6691,10 +6705,10 @@
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>20</v>
@@ -6705,10 +6719,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6728,22 +6742,22 @@
         <v>20</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>202</v>
+        <v>112</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -6768,13 +6782,13 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>382</v>
+        <v>20</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>383</v>
+        <v>20</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6792,7 +6806,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6801,7 +6815,7 @@
         <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>385</v>
+        <v>20</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>104</v>
@@ -6813,10 +6827,10 @@
         <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>135</v>
+        <v>364</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>20</v>
@@ -6825,16 +6839,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>388</v>
+        <v>20</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6844,7 +6858,7 @@
         <v>92</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>20</v>
@@ -6853,19 +6867,19 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -6890,11 +6904,13 @@
         <v>20</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="Y40" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="Z40" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>20</v>
@@ -6912,16 +6928,16 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>20</v>
+        <v>390</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>104</v>
@@ -6930,31 +6946,31 @@
         <v>20</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>394</v>
+        <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>395</v>
+        <v>135</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>397</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>20</v>
+        <v>393</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6973,19 +6989,19 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>399</v>
+        <v>207</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>400</v>
+        <v>195</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>401</v>
+        <v>195</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -7010,13 +7026,11 @@
         <v>20</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>20</v>
+        <v>396</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>20</v>
@@ -7034,7 +7048,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7043,7 +7057,7 @@
         <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>104</v>
@@ -7052,27 +7066,27 @@
         <v>20</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>20</v>
+        <v>397</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>135</v>
+        <v>398</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7083,7 +7097,7 @@
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>20</v>
@@ -7095,18 +7109,20 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>202</v>
+        <v>402</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>190</v>
+        <v>403</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>190</v>
+        <v>404</v>
       </c>
       <c r="N42" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="O42" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>20</v>
       </c>
@@ -7130,13 +7146,13 @@
         <v>20</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>407</v>
+        <v>20</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>408</v>
+        <v>20</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>20</v>
@@ -7154,16 +7170,16 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>104</v>
@@ -7172,27 +7188,27 @@
         <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>409</v>
+        <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>410</v>
+        <v>135</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>412</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7215,20 +7231,18 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>414</v>
+        <v>195</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>415</v>
+        <v>195</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>20</v>
       </c>
@@ -7252,13 +7266,13 @@
         <v>20</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>20</v>
@@ -7276,7 +7290,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7294,27 +7308,27 @@
         <v>20</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>20</v>
+        <v>412</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>20</v>
+        <v>415</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7337,18 +7351,20 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>423</v>
+        <v>207</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>190</v>
+        <v>417</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>190</v>
+        <v>418</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
       </c>
@@ -7372,13 +7388,13 @@
         <v>20</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>20</v>
+        <v>421</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>20</v>
+        <v>422</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>20</v>
@@ -7396,7 +7412,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7414,27 +7430,27 @@
         <v>20</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>425</v>
+        <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>428</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7457,16 +7473,16 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7516,7 +7532,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7534,27 +7550,27 @@
         <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7565,7 +7581,7 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
@@ -7577,20 +7593,18 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>20</v>
       </c>
@@ -7638,45 +7652,45 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="AG46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>441</v>
-      </c>
       <c r="AN46" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>20</v>
+        <v>438</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7687,7 +7701,7 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>20</v>
@@ -7699,16 +7713,20 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>217</v>
+        <v>440</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
       </c>
@@ -7756,19 +7774,19 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>220</v>
+        <v>439</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>20</v>
+        <v>443</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>20</v>
@@ -7777,10 +7795,10 @@
         <v>20</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>20</v>
+        <v>444</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>221</v>
+        <v>445</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>20</v>
@@ -7791,21 +7809,21 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>20</v>
@@ -7817,17 +7835,15 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>137</v>
+        <v>222</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M48" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -7876,19 +7892,19 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>20</v>
@@ -7900,7 +7916,7 @@
         <v>20</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>20</v>
@@ -7911,14 +7927,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>446</v>
+        <v>161</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7931,26 +7947,24 @@
         <v>20</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>137</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>447</v>
+        <v>229</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>448</v>
+        <v>230</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>20</v>
       </c>
@@ -7998,7 +8012,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>449</v>
+        <v>232</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8022,7 +8036,7 @@
         <v>20</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>135</v>
+        <v>226</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>20</v>
@@ -8033,42 +8047,46 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>20</v>
+        <v>449</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
       </c>
@@ -8116,19 +8134,19 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>454</v>
+        <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>20</v>
@@ -8137,10 +8155,10 @@
         <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>455</v>
+        <v>20</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>456</v>
+        <v>135</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
@@ -8151,10 +8169,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8177,13 +8195,13 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8234,7 +8252,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8243,7 +8261,7 @@
         <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>104</v>
@@ -8255,10 +8273,10 @@
         <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
@@ -8269,10 +8287,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8295,20 +8313,16 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>202</v>
+        <v>454</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>465</v>
-      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>20</v>
       </c>
@@ -8332,13 +8346,13 @@
         <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>466</v>
+        <v>20</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>467</v>
+        <v>20</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>20</v>
@@ -8356,7 +8370,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8365,7 +8379,7 @@
         <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>20</v>
+        <v>457</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>104</v>
@@ -8374,13 +8388,13 @@
         <v>20</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>468</v>
+        <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>396</v>
+        <v>463</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>20</v>
@@ -8391,10 +8405,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8405,7 +8419,7 @@
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>20</v>
@@ -8417,19 +8431,19 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -8454,13 +8468,13 @@
         <v>20</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>255</v>
+        <v>116</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>20</v>
@@ -8478,13 +8492,13 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>20</v>
@@ -8496,13 +8510,13 @@
         <v>20</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>20</v>
@@ -8513,10 +8527,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8527,7 +8541,7 @@
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>20</v>
@@ -8539,17 +8553,19 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>478</v>
+        <v>207</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="O54" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -8574,13 +8590,13 @@
         <v>20</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>20</v>
+        <v>478</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>20</v>
+        <v>479</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>20</v>
@@ -8598,13 +8614,13 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>20</v>
@@ -8616,13 +8632,13 @@
         <v>20</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>20</v>
+        <v>471</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>20</v>
+        <v>472</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>20</v>
@@ -8633,10 +8649,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8659,16 +8675,18 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>217</v>
+        <v>481</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>20</v>
       </c>
@@ -8716,7 +8734,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8737,10 +8755,10 @@
         <v>20</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>455</v>
+        <v>20</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>20</v>
@@ -8751,10 +8769,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8765,7 +8783,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>20</v>
@@ -8774,20 +8792,18 @@
         <v>20</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="L56" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>489</v>
-      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>20</v>
@@ -8836,13 +8852,13 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>20</v>
@@ -8857,10 +8873,10 @@
         <v>20</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>490</v>
+        <v>458</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>20</v>
@@ -8871,10 +8887,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8897,16 +8913,16 @@
         <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>494</v>
+        <v>195</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>495</v>
+        <v>195</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8956,7 +8972,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8977,10 +8993,10 @@
         <v>20</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>20</v>
@@ -8991,10 +9007,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9017,20 +9033,18 @@
         <v>93</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>437</v>
+        <v>496</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>190</v>
+        <v>497</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>190</v>
+        <v>498</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="O58" t="s" s="2">
-        <v>500</v>
-      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>20</v>
       </c>
@@ -9066,19 +9080,19 @@
         <v>20</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>501</v>
+        <v>20</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>502</v>
+        <v>20</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9099,10 +9113,10 @@
         <v>20</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>20</v>
@@ -9113,10 +9127,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9127,7 +9141,7 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>20</v>
@@ -9136,19 +9150,23 @@
         <v>20</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>217</v>
+        <v>440</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>20</v>
       </c>
@@ -9184,31 +9202,31 @@
         <v>20</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>20</v>
+        <v>504</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>20</v>
+        <v>505</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>220</v>
+        <v>501</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>20</v>
@@ -9217,10 +9235,10 @@
         <v>20</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>20</v>
+        <v>506</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>221</v>
+        <v>507</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>20</v>
@@ -9231,21 +9249,21 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>20</v>
@@ -9257,17 +9275,15 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>137</v>
+        <v>222</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M60" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>20</v>
@@ -9316,19 +9332,19 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>20</v>
@@ -9340,7 +9356,7 @@
         <v>20</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>20</v>
@@ -9351,14 +9367,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>446</v>
+        <v>161</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9371,26 +9387,24 @@
         <v>20</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>137</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>447</v>
+        <v>229</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>448</v>
+        <v>230</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>20</v>
       </c>
@@ -9438,7 +9452,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>449</v>
+        <v>232</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9462,7 +9476,7 @@
         <v>20</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>135</v>
+        <v>226</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>20</v>
@@ -9473,45 +9487,45 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>20</v>
+        <v>449</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>509</v>
+        <v>450</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>510</v>
+        <v>451</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>511</v>
+        <v>164</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>253</v>
+        <v>165</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>20</v>
@@ -9536,13 +9550,13 @@
         <v>20</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>257</v>
+        <v>20</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>20</v>
@@ -9560,34 +9574,34 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>508</v>
+        <v>452</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>512</v>
+        <v>20</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>261</v>
+        <v>135</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>262</v>
+        <v>20</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>20</v>
@@ -9595,10 +9609,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9606,7 +9620,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>92</v>
@@ -9621,19 +9635,19 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>516</v>
-      </c>
       <c r="O63" t="s" s="2">
-        <v>316</v>
+        <v>258</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>20</v>
@@ -9658,13 +9672,13 @@
         <v>20</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>20</v>
+        <v>261</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>20</v>
+        <v>262</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>20</v>
@@ -9682,10 +9696,10 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>92</v>
@@ -9700,27 +9714,27 @@
         <v>20</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>321</v>
+        <v>265</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>322</v>
+        <v>266</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>20</v>
+        <v>267</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>323</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9740,22 +9754,22 @@
         <v>20</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>202</v>
+        <v>517</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N64" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="M64" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>521</v>
-      </c>
       <c r="O64" t="s" s="2">
-        <v>381</v>
+        <v>321</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -9780,13 +9794,13 @@
         <v>20</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>382</v>
+        <v>20</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>383</v>
+        <v>20</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>20</v>
@@ -9804,7 +9818,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9813,7 +9827,7 @@
         <v>92</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>385</v>
+        <v>20</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>104</v>
@@ -9822,38 +9836,38 @@
         <v>20</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>20</v>
+        <v>520</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>135</v>
+        <v>326</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>386</v>
+        <v>327</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>20</v>
+        <v>328</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>388</v>
+        <v>20</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>20</v>
@@ -9865,19 +9879,19 @@
         <v>20</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>389</v>
+        <v>522</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>390</v>
+        <v>523</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>391</v>
+        <v>524</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>20</v>
@@ -9902,13 +9916,13 @@
         <v>20</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>523</v>
+        <v>388</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>524</v>
+        <v>389</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>20</v>
@@ -9926,16 +9940,16 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>20</v>
+        <v>390</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>104</v>
@@ -9944,19 +9958,19 @@
         <v>20</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>394</v>
+        <v>20</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>395</v>
+        <v>135</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>397</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" hidden="true">
@@ -9968,7 +9982,7 @@
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>20</v>
+        <v>393</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9987,7 +10001,7 @@
         <v>20</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="L66" t="s" s="2">
         <v>526</v>
@@ -9996,10 +10010,10 @@
         <v>527</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>438</v>
+        <v>394</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>439</v>
+        <v>395</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>20</v>
@@ -10024,13 +10038,13 @@
         <v>20</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>20</v>
+        <v>387</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>20</v>
+        <v>528</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>20</v>
+        <v>529</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>20</v>
@@ -10066,31 +10080,29 @@
         <v>20</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>20</v>
+        <v>397</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>441</v>
+        <v>398</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>442</v>
+        <v>399</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>529</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
         <v>20</v>
       </c>
@@ -10099,7 +10111,7 @@
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>20</v>
@@ -10108,22 +10120,22 @@
         <v>20</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>437</v>
+        <v>82</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>532</v>
+        <v>441</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>533</v>
+        <v>442</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>20</v>
@@ -10172,7 +10184,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>498</v>
+        <v>530</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10193,10 +10205,10 @@
         <v>20</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>503</v>
+        <v>444</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>504</v>
+        <v>445</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>20</v>
@@ -10207,12 +10219,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="C68" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="B68" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
         <v>20</v>
       </c>
@@ -10230,19 +10244,23 @@
         <v>20</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>217</v>
+        <v>440</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+        <v>536</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>20</v>
       </c>
@@ -10290,19 +10308,19 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>220</v>
+        <v>501</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>20</v>
@@ -10311,10 +10329,10 @@
         <v>20</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>20</v>
+        <v>506</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>221</v>
+        <v>507</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>20</v>
@@ -10325,21 +10343,21 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>20</v>
@@ -10351,17 +10369,15 @@
         <v>20</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>137</v>
+        <v>222</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>20</v>
@@ -10410,19 +10426,19 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>20</v>
@@ -10434,7 +10450,7 @@
         <v>20</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>20</v>
@@ -10445,14 +10461,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>446</v>
+        <v>161</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10465,26 +10481,24 @@
         <v>20</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>137</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>447</v>
+        <v>229</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>448</v>
+        <v>230</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>20</v>
       </c>
@@ -10532,7 +10546,7 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>449</v>
+        <v>232</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10556,7 +10570,7 @@
         <v>20</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>135</v>
+        <v>226</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>20</v>
@@ -10567,45 +10581,45 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>20</v>
+        <v>449</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>529</v>
+        <v>450</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>510</v>
+        <v>451</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>511</v>
+        <v>164</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>253</v>
+        <v>165</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>20</v>
@@ -10615,7 +10629,7 @@
         <v>20</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>538</v>
+        <v>20</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>20</v>
@@ -10630,13 +10644,13 @@
         <v>20</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>257</v>
+        <v>20</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>20</v>
@@ -10654,34 +10668,34 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>508</v>
+        <v>452</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>512</v>
+        <v>20</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>261</v>
+        <v>135</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>262</v>
+        <v>20</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>20</v>
@@ -10689,10 +10703,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10700,7 +10714,7 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>92</v>
@@ -10715,19 +10729,19 @@
         <v>93</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>314</v>
+        <v>513</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>316</v>
+        <v>258</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>20</v>
@@ -10737,7 +10751,7 @@
         <v>20</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>20</v>
+        <v>543</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>20</v>
@@ -10752,13 +10766,13 @@
         <v>20</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>20</v>
+        <v>261</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>20</v>
+        <v>262</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>20</v>
@@ -10776,10 +10790,10 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>92</v>
@@ -10794,27 +10808,27 @@
         <v>20</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>321</v>
+        <v>265</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>322</v>
+        <v>266</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>20</v>
+        <v>267</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>323</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10834,22 +10848,22 @@
         <v>20</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N73" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="M73" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>521</v>
-      </c>
       <c r="O73" t="s" s="2">
-        <v>381</v>
+        <v>321</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>20</v>
@@ -10874,13 +10888,13 @@
         <v>20</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>382</v>
+        <v>20</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>383</v>
+        <v>20</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>20</v>
@@ -10898,7 +10912,7 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10907,7 +10921,7 @@
         <v>92</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>385</v>
+        <v>20</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>104</v>
@@ -10916,38 +10930,38 @@
         <v>20</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>20</v>
+        <v>520</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>135</v>
+        <v>326</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>386</v>
+        <v>327</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>20</v>
+        <v>328</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>388</v>
+        <v>20</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>20</v>
@@ -10959,19 +10973,19 @@
         <v>20</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>389</v>
+        <v>522</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>390</v>
+        <v>523</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>391</v>
+        <v>524</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>20</v>
@@ -10996,13 +11010,13 @@
         <v>20</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>523</v>
+        <v>388</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>524</v>
+        <v>389</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>20</v>
@@ -11020,16 +11034,16 @@
         <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>20</v>
+        <v>390</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>104</v>
@@ -11038,31 +11052,31 @@
         <v>20</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>394</v>
+        <v>20</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>395</v>
+        <v>135</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>397</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>525</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>20</v>
+        <v>393</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -11081,7 +11095,7 @@
         <v>20</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="L75" t="s" s="2">
         <v>526</v>
@@ -11090,10 +11104,10 @@
         <v>527</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>438</v>
+        <v>394</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>439</v>
+        <v>395</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>20</v>
@@ -11118,13 +11132,13 @@
         <v>20</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>20</v>
+        <v>387</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>20</v>
+        <v>528</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>20</v>
+        <v>529</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>20</v>
@@ -11160,23 +11174,145 @@
         <v>20</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>20</v>
+        <v>397</v>
       </c>
       <c r="AM75" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP75" t="s" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="N76" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AN75" t="s" s="2">
+      <c r="O76" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AO75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP75" t="s" s="2">
+      <c r="P76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP76" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP75">
+  <autoFilter ref="A1:AP76">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11186,7 +11322,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI74">
+  <conditionalFormatting sqref="A2:AI75">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-onconova-tumor-mutational-burden.xlsx
+++ b/StructureDefinition-onconova-tumor-mutational-burden.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:19:06+00:00</t>
+    <t>2025-11-24T08:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-mutational-burden.xlsx
+++ b/StructureDefinition-onconova-tumor-mutational-burden.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:55:00+00:00</t>
+    <t>2025-11-24T09:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-mutational-burden.xlsx
+++ b/StructureDefinition-onconova-tumor-mutational-burden.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T09:24:28+00:00</t>
+    <t>2025-11-24T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-mutational-burden.xlsx
+++ b/StructureDefinition-onconova-tumor-mutational-burden.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T11:19:41+00:00</t>
+    <t>2025-11-25T07:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-mutational-burden.xlsx
+++ b/StructureDefinition-onconova-tumor-mutational-burden.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T07:35:44+00:00</t>
+    <t>2025-11-25T10:34:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-mutational-burden.xlsx
+++ b/StructureDefinition-onconova-tumor-mutational-burden.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T10:34:25+00:00</t>
+    <t>2025-11-27T10:13:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-mutational-burden.xlsx
+++ b/StructureDefinition-onconova-tumor-mutational-burden.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T10:13:46+00:00</t>
+    <t>2025-11-27T13:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-mutational-burden.xlsx
+++ b/StructureDefinition-onconova-tumor-mutational-burden.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T13:06:44+00:00</t>
+    <t>2025-12-04T06:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-mutational-burden.xlsx
+++ b/StructureDefinition-onconova-tumor-mutational-burden.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:29:30+00:00</t>
+    <t>2025-12-04T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -282,7 +282,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}o-sig-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-sig-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}o-sig-req-3:The valueQuantity element is required and must be provided. {valueQuantity.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}o-sig-req-1:The subject element is required and must be provided. {subject.exists()}o-sig-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}o-sig-req-3:The valueQuantity element is required and must be provided. {valueQuantity.exists()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/StructureDefinition-onconova-tumor-mutational-burden.xlsx
+++ b/StructureDefinition-onconova-tumor-mutational-burden.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:46:00+00:00</t>
+    <t>2025-12-04T07:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-mutational-burden.xlsx
+++ b/StructureDefinition-onconova-tumor-mutational-burden.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T07:07:35+00:00</t>
+    <t>2025-12-04T10:18:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-mutational-burden.xlsx
+++ b/StructureDefinition-onconova-tumor-mutational-burden.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:18:27+00:00</t>
+    <t>2025-12-04T10:59:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-mutational-burden.xlsx
+++ b/StructureDefinition-onconova-tumor-mutational-burden.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:59:28+00:00</t>
+    <t>2026-02-25T14:29:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-mutational-burden.xlsx
+++ b/StructureDefinition-onconova-tumor-mutational-burden.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T14:29:35+00:00</t>
+    <t>2026-02-25T15:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
